--- a/results/mp/logistic/corona/confidence/126/0.35/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/126/0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="91">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,48 +40,45 @@
     <t>name</t>
   </si>
   <si>
+    <t>kill</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
     <t>forced</t>
   </si>
   <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
+    <t>panic</t>
+  </si>
+  <si>
     <t>fears</t>
   </si>
   <si>
     <t>drop</t>
   </si>
   <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
     <t>emergency</t>
   </si>
   <si>
@@ -97,30 +94,24 @@
     <t>demand</t>
   </si>
   <si>
-    <t>are</t>
-  </si>
-  <si>
     <t>of</t>
   </si>
   <si>
-    <t>19</t>
+    <t>co</t>
   </si>
   <si>
     <t>a</t>
   </si>
   <si>
-    <t>co</t>
+    <t>to</t>
+  </si>
+  <si>
+    <t>the</t>
   </si>
   <si>
     <t>corona</t>
   </si>
   <si>
-    <t>to</t>
-  </si>
-  <si>
-    <t>the</t>
-  </si>
-  <si>
     <t>.</t>
   </si>
   <si>
@@ -130,90 +121,90 @@
     <t>love</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>wow</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>great</t>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>thanks</t>
   </si>
   <si>
     <t>amazing</t>
   </si>
   <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>confidence</t>
+    <t>save</t>
   </si>
   <si>
     <t>friends</t>
   </si>
   <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>join</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>save</t>
-  </si>
-  <si>
     <t>true</t>
   </si>
   <si>
@@ -223,58 +214,61 @@
     <t>gt</t>
   </si>
   <si>
-    <t>ensure</t>
-  </si>
-  <si>
     <t>please</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>help</t>
   </si>
   <si>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
     <t>ready</t>
   </si>
   <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>well</t>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>hope</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
     <t>alert</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
     <t>safety</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>data</t>
+    <t>helping</t>
   </si>
   <si>
     <t>sure</t>
   </si>
   <si>
-    <t>helping</t>
+    <t>our</t>
+  </si>
+  <si>
+    <t>your</t>
   </si>
   <si>
     <t>you</t>
@@ -283,19 +277,16 @@
     <t>!</t>
   </si>
   <si>
-    <t>i</t>
-  </si>
-  <si>
     <t>and</t>
   </si>
   <si>
     <t>for</t>
   </si>
   <si>
+    <t>,</t>
+  </si>
+  <si>
     <t>?</t>
-  </si>
-  <si>
-    <t>,</t>
   </si>
 </sst>
 </file>
@@ -653,7 +644,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q62"/>
+  <dimension ref="A1:Q63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -661,7 +652,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J1" t="s">
         <v>48</v>
@@ -722,13 +713,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7431506849315068</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C3">
-        <v>217</v>
+        <v>15</v>
       </c>
       <c r="D3">
-        <v>217</v>
+        <v>15</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -740,19 +731,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>75</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K3">
-        <v>0.9565217391304348</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -764,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -772,13 +763,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6896551724137931</v>
+        <v>0.7465753424657534</v>
       </c>
       <c r="C4">
-        <v>20</v>
+        <v>218</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>218</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -790,19 +781,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K4">
-        <v>0.9333333333333333</v>
+        <v>0.9</v>
       </c>
       <c r="L4">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="M4">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -814,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -822,13 +813,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6052631578947368</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="C5">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D5">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -840,19 +831,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K5">
-        <v>0.9322033898305084</v>
+        <v>0.8983050847457628</v>
       </c>
       <c r="L5">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M5">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -864,7 +855,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -872,37 +863,37 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.5652173913043478</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="C6">
+        <v>21</v>
+      </c>
+      <c r="D6">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>13</v>
       </c>
-      <c r="D6">
-        <v>13</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>10</v>
-      </c>
       <c r="J6" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K6">
-        <v>0.9166666666666666</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L6">
-        <v>110</v>
+        <v>17</v>
       </c>
       <c r="M6">
-        <v>110</v>
+        <v>17</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -914,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -922,13 +913,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5588235294117647</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C7">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D7">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -940,19 +931,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K7">
-        <v>0.8947368421052632</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L7">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M7">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -964,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -972,13 +963,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5384615384615384</v>
+        <v>0.5</v>
       </c>
       <c r="C8">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D8">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -990,10 +981,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K8">
         <v>0.875</v>
@@ -1022,13 +1013,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.4722222222222222</v>
+        <v>0.5</v>
       </c>
       <c r="C9">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D9">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1040,19 +1031,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K9">
-        <v>0.8333333333333334</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L9">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M9">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1064,7 +1055,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1072,13 +1063,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.4666666666666667</v>
+        <v>0.4594594594594595</v>
       </c>
       <c r="C10">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D10">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1090,19 +1081,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K10">
-        <v>0.8333333333333334</v>
+        <v>0.8125</v>
       </c>
       <c r="L10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1114,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1122,13 +1113,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.4338624338624338</v>
+        <v>0.4473684210526316</v>
       </c>
       <c r="C11">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="D11">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1140,19 +1131,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>107</v>
+        <v>21</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K11">
-        <v>0.8328981723237598</v>
+        <v>0.8120104438642297</v>
       </c>
       <c r="L11">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="M11">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1164,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1172,13 +1163,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4117647058823529</v>
+        <v>0.4391534391534391</v>
       </c>
       <c r="C12">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="D12">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1190,19 +1181,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K12">
-        <v>0.8292682926829268</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L12">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="M12">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1214,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1222,13 +1213,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4067796610169492</v>
+        <v>0.3701550387596899</v>
       </c>
       <c r="C13">
-        <v>24</v>
+        <v>191</v>
       </c>
       <c r="D13">
-        <v>24</v>
+        <v>191</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1240,19 +1231,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>35</v>
+        <v>325</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K13">
-        <v>0.8205128205128205</v>
+        <v>0.7924528301886793</v>
       </c>
       <c r="L13">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="M13">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1264,7 +1255,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1272,13 +1263,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4054054054054054</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C14">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D14">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1290,19 +1281,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K14">
-        <v>0.8103448275862069</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="L14">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="M14">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1314,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1322,13 +1313,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3856589147286822</v>
+        <v>0.2711864406779661</v>
       </c>
       <c r="C15">
-        <v>199</v>
+        <v>16</v>
       </c>
       <c r="D15">
-        <v>199</v>
+        <v>16</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1340,19 +1331,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>317</v>
+        <v>43</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K15">
-        <v>0.8076923076923077</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="L15">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="M15">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1364,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1372,13 +1363,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.2363636363636364</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="C16">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D16">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1390,19 +1381,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K16">
-        <v>0.7924528301886793</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L16">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="M16">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1414,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1422,13 +1413,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.2266666666666667</v>
+        <v>0.174496644295302</v>
       </c>
       <c r="C17">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D17">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1440,19 +1431,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>58</v>
+        <v>123</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K17">
-        <v>0.7878787878787878</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L17">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="M17">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1464,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1472,49 +1463,49 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.2147651006711409</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C18">
+        <v>60</v>
+      </c>
+      <c r="D18">
+        <v>60</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>300</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K18">
+        <v>0.7746478873239436</v>
+      </c>
+      <c r="L18">
+        <v>110</v>
+      </c>
+      <c r="M18">
+        <v>110</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
         <v>32</v>
-      </c>
-      <c r="D18">
-        <v>32</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>117</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K18">
-        <v>0.7816901408450704</v>
-      </c>
-      <c r="L18">
-        <v>111</v>
-      </c>
-      <c r="M18">
-        <v>111</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1522,13 +1513,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.1472222222222222</v>
+        <v>0.0873015873015873</v>
       </c>
       <c r="C19">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="D19">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1540,19 +1531,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>307</v>
+        <v>230</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K19">
-        <v>0.78125</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L19">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="M19">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1564,7 +1555,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1572,13 +1563,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.05555555555555555</v>
+        <v>0.04289544235924933</v>
       </c>
       <c r="C20">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D20">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1590,19 +1581,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>238</v>
+        <v>357</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K20">
-        <v>0.7777777777777778</v>
+        <v>0.765625</v>
       </c>
       <c r="L20">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="M20">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1614,7 +1605,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1622,37 +1613,37 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.03753351206434316</v>
+        <v>0.009294465568229826</v>
       </c>
       <c r="C21">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D21">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.65</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21">
-        <v>359</v>
+        <v>2345</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K21">
-        <v>0.76875</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L21">
-        <v>123</v>
+        <v>35</v>
       </c>
       <c r="M21">
-        <v>123</v>
+        <v>35</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1664,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1672,37 +1663,37 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.01092896174863388</v>
+        <v>0.007089912987431518</v>
       </c>
       <c r="C22">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D22">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E22">
-        <v>0.36</v>
+        <v>0.15</v>
       </c>
       <c r="F22">
-        <v>0.64</v>
+        <v>0.85</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
       </c>
       <c r="H22">
-        <v>1267</v>
+        <v>3081</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K22">
-        <v>0.75</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="L22">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="M22">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1714,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1722,37 +1713,37 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.007594936708860759</v>
+        <v>0.006530256856769699</v>
       </c>
       <c r="C23">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D23">
         <v>27</v>
       </c>
       <c r="E23">
-        <v>0.33</v>
+        <v>0.44</v>
       </c>
       <c r="F23">
-        <v>0.6699999999999999</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
       </c>
       <c r="H23">
-        <v>2352</v>
+        <v>2282</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K23">
-        <v>0.75</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L23">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="M23">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1764,7 +1755,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1772,37 +1763,37 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.007022471910112359</v>
+        <v>0.006053550640279395</v>
       </c>
       <c r="C24">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D24">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="E24">
-        <v>0.32</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="F24">
-        <v>0.6799999999999999</v>
+        <v>0.4399999999999999</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
       </c>
       <c r="H24">
-        <v>2121</v>
+        <v>4269</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K24">
-        <v>0.7272727272727273</v>
+        <v>0.725</v>
       </c>
       <c r="L24">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="M24">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1814,7 +1805,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>6</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1822,37 +1813,37 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.006513243595310464</v>
+        <v>0.005254963020630596</v>
       </c>
       <c r="C25">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D25">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="E25">
-        <v>0.29</v>
+        <v>0.5</v>
       </c>
       <c r="F25">
-        <v>0.71</v>
+        <v>0.5</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
       </c>
       <c r="H25">
-        <v>2288</v>
+        <v>5111</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K25">
-        <v>0.723404255319149</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L25">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="M25">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1864,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1872,37 +1863,37 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.005813953488372093</v>
+        <v>0.004079071226859115</v>
       </c>
       <c r="C26">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D26">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E26">
-        <v>0.38</v>
+        <v>0.52</v>
       </c>
       <c r="F26">
-        <v>0.62</v>
+        <v>0.48</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
       </c>
       <c r="H26">
-        <v>3078</v>
+        <v>3174</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K26">
-        <v>0.6875</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L26">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="M26">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1914,7 +1905,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1922,213 +1913,141 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.005640864932623002</v>
+        <v>0.003422589087980672</v>
       </c>
       <c r="C27">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D27">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="E27">
-        <v>0.36</v>
+        <v>0.63</v>
       </c>
       <c r="F27">
-        <v>0.64</v>
+        <v>0.37</v>
       </c>
       <c r="G27" t="b">
         <v>1</v>
       </c>
       <c r="H27">
-        <v>3173</v>
+        <v>4950</v>
       </c>
       <c r="J27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K27">
+        <v>0.6944444444444444</v>
+      </c>
+      <c r="L27">
+        <v>25</v>
+      </c>
+      <c r="M27">
+        <v>25</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="J28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K28">
+        <v>0.6857142857142857</v>
+      </c>
+      <c r="L28">
+        <v>24</v>
+      </c>
+      <c r="M28">
+        <v>24</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="J29" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K29">
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="L29">
+        <v>19</v>
+      </c>
+      <c r="M29">
+        <v>19</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="J30" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="K27">
-        <v>0.6842105263157895</v>
-      </c>
-      <c r="L27">
-        <v>13</v>
-      </c>
-      <c r="M27">
-        <v>13</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="A28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28">
-        <v>0.00535631113181183</v>
-      </c>
-      <c r="C28">
-        <v>23</v>
-      </c>
-      <c r="D28">
-        <v>57</v>
-      </c>
-      <c r="E28">
-        <v>0.6</v>
-      </c>
-      <c r="F28">
-        <v>0.4</v>
-      </c>
-      <c r="G28" t="b">
-        <v>1</v>
-      </c>
-      <c r="H28">
-        <v>4271</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K28">
-        <v>0.6825396825396826</v>
-      </c>
-      <c r="L28">
-        <v>43</v>
-      </c>
-      <c r="M28">
-        <v>43</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="A29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29">
-        <v>0.004281821720513819</v>
-      </c>
-      <c r="C29">
-        <v>22</v>
-      </c>
-      <c r="D29">
-        <v>49</v>
-      </c>
-      <c r="E29">
-        <v>0.55</v>
-      </c>
-      <c r="F29">
-        <v>0.45</v>
-      </c>
-      <c r="G29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29">
-        <v>5116</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K29">
+      <c r="K30">
         <v>0.6744186046511628</v>
       </c>
-      <c r="L29">
+      <c r="L30">
         <v>29</v>
       </c>
-      <c r="M29">
+      <c r="M30">
         <v>29</v>
       </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
         <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="A30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30">
-        <v>0.003636363636363636</v>
-      </c>
-      <c r="C30">
-        <v>18</v>
-      </c>
-      <c r="D30">
-        <v>64</v>
-      </c>
-      <c r="E30">
-        <v>0.72</v>
-      </c>
-      <c r="F30">
-        <v>0.28</v>
-      </c>
-      <c r="G30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30">
-        <v>4932</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K30">
-        <v>0.66</v>
-      </c>
-      <c r="L30">
-        <v>33</v>
-      </c>
-      <c r="M30">
-        <v>33</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K31">
-        <v>0.6571428571428571</v>
+        <v>0.64</v>
       </c>
       <c r="L31">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M31">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2140,12 +2059,12 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K32">
         <v>0.6363636363636364</v>
@@ -2171,16 +2090,16 @@
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K33">
-        <v>0.6264705882352941</v>
+        <v>0.6323529411764706</v>
       </c>
       <c r="L33">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="M33">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2192,12 +2111,12 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K34">
         <v>0.6</v>
@@ -2223,16 +2142,16 @@
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K35">
-        <v>0.5833333333333334</v>
+        <v>0.5983263598326359</v>
       </c>
       <c r="L35">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="M35">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2244,21 +2163,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>10</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K36">
-        <v>0.5774058577405857</v>
+        <v>0.5851063829787234</v>
       </c>
       <c r="L36">
-        <v>138</v>
+        <v>55</v>
       </c>
       <c r="M36">
-        <v>138</v>
+        <v>55</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2270,47 +2189,47 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>101</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K37">
-        <v>0.5748299319727891</v>
+        <v>0.5830508474576271</v>
       </c>
       <c r="L37">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="M37">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="N37">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K38">
-        <v>0.5714285714285714</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="L38">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M38">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2322,12 +2241,12 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K39">
         <v>0.5652173913043478</v>
@@ -2353,16 +2272,16 @@
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K40">
-        <v>0.5531914893617021</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="L40">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="M40">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2374,21 +2293,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>42</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K41">
-        <v>0.5428571428571428</v>
+        <v>0.5151515151515151</v>
       </c>
       <c r="L41">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="M41">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2400,21 +2319,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K42">
-        <v>0.5384615384615384</v>
+        <v>0.4943820224719101</v>
       </c>
       <c r="L42">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="M42">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2426,21 +2345,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K43">
-        <v>0.5151515151515151</v>
+        <v>0.4923076923076923</v>
       </c>
       <c r="L43">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="M43">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2452,21 +2371,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K44">
-        <v>0.4831460674157304</v>
+        <v>0.4571428571428571</v>
       </c>
       <c r="L44">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="M44">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2478,21 +2397,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K45">
-        <v>0.4761904761904762</v>
+        <v>0.4047619047619048</v>
       </c>
       <c r="L45">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M45">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2504,21 +2423,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K46">
-        <v>0.4313725490196079</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="L46">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="M46">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2530,21 +2449,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K47">
-        <v>0.3561643835616438</v>
+        <v>0.3424657534246575</v>
       </c>
       <c r="L47">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M47">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2556,21 +2475,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K48">
         <v>0.3333333333333333</v>
       </c>
       <c r="L48">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="M48">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2582,21 +2501,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>30</v>
+        <v>52</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K49">
-        <v>0.3205128205128205</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L49">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="M49">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2608,21 +2527,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>53</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K50">
-        <v>0.2807017543859649</v>
+        <v>0.2372881355932203</v>
       </c>
       <c r="L50">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M50">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2634,21 +2553,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K51">
-        <v>0.234375</v>
+        <v>0.21875</v>
       </c>
       <c r="L51">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M51">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2660,21 +2579,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K52">
-        <v>0.2203389830508475</v>
+        <v>0.03349282296650718</v>
       </c>
       <c r="L52">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M52">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2686,47 +2605,47 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>46</v>
+        <v>404</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K53">
-        <v>0.0342237061769616</v>
+        <v>0.02742230347349177</v>
       </c>
       <c r="L53">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="M53">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="N53">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O53">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53">
-        <v>1157</v>
+        <v>532</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K54">
-        <v>0.02127659574468085</v>
+        <v>0.02422723475355054</v>
       </c>
       <c r="L54">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="M54">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="N54">
         <v>0.91</v>
@@ -2738,215 +2657,241 @@
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>966</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K55">
-        <v>0.01442307692307692</v>
+        <v>0.01417004048582996</v>
       </c>
       <c r="L55">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M55">
         <v>15</v>
       </c>
       <c r="N55">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O55">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q55">
-        <v>1025</v>
+        <v>974</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K56">
-        <v>0.01275797373358349</v>
+        <v>0.01164100638377769</v>
       </c>
       <c r="L56">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M56">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N56">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="O56">
-        <v>0.1899999999999999</v>
+        <v>0.24</v>
       </c>
       <c r="P56" t="b">
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>2631</v>
+        <v>2632</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K57">
-        <v>0.009445843828715366</v>
+        <v>0.01068510370835952</v>
       </c>
       <c r="L57">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M57">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N57">
-        <v>0.71</v>
+        <v>0.85</v>
       </c>
       <c r="O57">
-        <v>0.29</v>
+        <v>0.15</v>
       </c>
       <c r="P57" t="b">
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>1573</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="K58">
-        <v>0.009240658899156288</v>
+        <v>0.01026272577996716</v>
       </c>
       <c r="L58">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="M58">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="N58">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
       <c r="O58">
-        <v>0.28</v>
+        <v>0.26</v>
       </c>
       <c r="P58" t="b">
         <v>1</v>
       </c>
       <c r="Q58">
-        <v>4932</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="K59">
-        <v>0.007897793263646922</v>
+        <v>0.008790288823775638</v>
       </c>
       <c r="L59">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="M59">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="N59">
-        <v>0.6</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="O59">
-        <v>0.4</v>
+        <v>0.1899999999999999</v>
       </c>
       <c r="P59" t="b">
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>4271</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="K60">
-        <v>0.005437055625261397</v>
+        <v>0.007670850767085077</v>
       </c>
       <c r="L60">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M60">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="N60">
-        <v>0.8100000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O60">
-        <v>0.1899999999999999</v>
+        <v>0.4399999999999999</v>
       </c>
       <c r="P60" t="b">
         <v>1</v>
       </c>
       <c r="Q60">
-        <v>2378</v>
+        <v>4269</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>93</v>
+        <v>32</v>
       </c>
       <c r="K61">
-        <v>0.005334427574887156</v>
+        <v>0.005824462743522796</v>
       </c>
       <c r="L61">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M61">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="N61">
-        <v>0.62</v>
+        <v>0.63</v>
       </c>
       <c r="O61">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="P61" t="b">
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>2424</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K62">
-        <v>0.00524985417071748</v>
+        <v>0.005254963020630596</v>
       </c>
       <c r="L62">
         <v>27</v>
       </c>
       <c r="M62">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="N62">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="O62">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="P62" t="b">
         <v>1</v>
       </c>
       <c r="Q62">
-        <v>5116</v>
+        <v>5111</v>
+      </c>
+    </row>
+    <row r="63" spans="10:17">
+      <c r="J63" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K63">
+        <v>0.00439146800501882</v>
+      </c>
+      <c r="L63">
+        <v>14</v>
+      </c>
+      <c r="M63">
+        <v>27</v>
+      </c>
+      <c r="N63">
+        <v>0.52</v>
+      </c>
+      <c r="O63">
+        <v>0.48</v>
+      </c>
+      <c r="P63" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q63">
+        <v>3174</v>
       </c>
     </row>
   </sheetData>
